--- a/biology/Histoire de la zoologie et de la botanique/Ross_Piper/Ross_Piper.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ross_Piper/Ross_Piper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ross Piper est un zoologiste et écrivain britannique[1].
-Diplômé en zoologie de l'Université de Wales en 1998[2], il a terminé un PhD à l'Université de Leeds en 2002[3]. Depuis 2006, il publie plusieurs livres de vulgarisation scientifique sur la zoologie et d'autres sujets connexes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ross Piper est un zoologiste et écrivain britannique.
+Diplômé en zoologie de l'Université de Wales en 1998, il a terminé un PhD à l'Université de Leeds en 2002. Depuis 2006, il publie plusieurs livres de vulgarisation scientifique sur la zoologie et d'autres sujets connexes.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Ross Piper, Extraordinary Animals : An Encyclopedia of Curious and Unusual Animals, Greenwood Publishing Group, 30 août 2007, 298 p. (ISBN 978-0-313-33922-6, lire en ligne)
 (en) Ross Piper, Death Zone! : Can Humans Survive at 26,000 Feet?, Heinemann-Raintree Classroom, 1er janvier 2009, 32 p. (ISBN 978-1-4296-3128-0)
@@ -521,7 +535,7 @@
 (en) Ross Piper, Surviving in the World's Most Extreme Places, Capstone Press, 1er janvier 2010 (ISBN 978-1-4296-4560-7)
 (en) Ross Piper, Survival! : Staying Alive in the Wild, A &amp; C Black, 5 mars 2010 (ISBN 978-1-4081-0091-2)
 (en) Ross Piper, Extreme Lunch : Life and Death in a Food Chain, A &amp; C Black, 30 mars 2010 (ISBN 978-1-4081-0101-8)
-(en) Ross Piper, Pests : a guide to the world's most maligned, yet misunderstood creatures, Santa Barbara (Calif.), ABC-CLIO, 3 mars 2011, 282 p. (ISBN 978-0-313-38426-4, lire en ligne)[2]</t>
+(en) Ross Piper, Pests : a guide to the world's most maligned, yet misunderstood creatures, Santa Barbara (Calif.), ABC-CLIO, 3 mars 2011, 282 p. (ISBN 978-0-313-38426-4, lire en ligne)</t>
         </is>
       </c>
     </row>
